--- a/biology/Botanique/Parc_de_la_Victoire_(Saint-Pétersbourg)/Parc_de_la_Victoire_(Saint-Pétersbourg).xlsx
+++ b/biology/Botanique/Parc_de_la_Victoire_(Saint-Pétersbourg)/Parc_de_la_Victoire_(Saint-Pétersbourg).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_la_Victoire_(Saint-P%C3%A9tersbourg)</t>
+          <t>Parc_de_la_Victoire_(Saint-Pétersbourg)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Victoire (en russe : Московский парк Победы ou Parc de la Victoire Moskovsky) est un parc qui est situé dans le District de Moskovsky au Sud de Saint-Pétersbourg. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_la_Victoire_(Saint-P%C3%A9tersbourg)</t>
+          <t>Parc_de_la_Victoire_(Saint-Pétersbourg)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de la Victoire est délimitée par les avenues Kuznetsovskaya, Moskovsky, Youri Gagarine et Basseynaya. Il s'étend sur 0,68 km².
 Le parc a été créé après la Seconde Guerre mondiale sur l'ancien site d'une briqueterie qui fut utilisé comme four crématoire pour brûler plusieurs milliers de corps lors du siège de Léningrad. Il fut inauguré le 7 juillet 1946 et reçut son nom en l'honneur de la victoire soviétique de 1945 sur le Troisième Reich.
